--- a/test-phase1/testcases.xlsx
+++ b/test-phase1/testcases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Edge-Detection\test-phase1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF0F0E9-FD93-47F6-A305-1433CD10B5DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE561156-9010-4B32-B3AA-33E74D31D5D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="1560" windowWidth="25920" windowHeight="12180" xr2:uid="{D9080F51-A76A-4FF1-BCE7-52963C9AB4DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9080F51-A76A-4FF1-BCE7-52963C9AB4DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>Byte</t>
   </si>
@@ -142,6 +142,69 @@
   </si>
   <si>
     <t>Dataframe</t>
+  </si>
+  <si>
+    <t>Hex</t>
+  </si>
+  <si>
+    <t>0f</t>
+  </si>
+  <si>
+    <t>f0</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>f4</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>6e</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>f8</t>
+  </si>
+  <si>
+    <t>b8</t>
+  </si>
+  <si>
+    <t>a0</t>
+  </si>
+  <si>
+    <t>a8</t>
+  </si>
+  <si>
+    <t>Verified</t>
+  </si>
+  <si>
+    <t>c0</t>
   </si>
 </sst>
 </file>
@@ -173,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -327,19 +390,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -354,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -402,9 +452,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,45 +459,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -767,494 +804,733 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29167566-3071-4CC4-A008-AAC6C6145884}">
-  <dimension ref="F6:P45"/>
+  <dimension ref="F4:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="7.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="7" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F6" s="22"/>
-      <c r="G6" s="21" t="s">
+    <row r="4" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+    </row>
+    <row r="6" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F6" s="19"/>
+      <c r="G6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="L6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="4" t="s">
+      <c r="S6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="U6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F7" s="23"/>
-      <c r="G7" s="25" t="s">
+    <row r="7" spans="6:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="27"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="H7" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="30">
+        <v>18</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="30">
+        <v>80</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="10"/>
+    </row>
+    <row r="8" spans="6:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="20">
-        <v>1</v>
-      </c>
-      <c r="N8" s="8">
+      <c r="H8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="26" t="str">
+        <f>HEX2BIN(M8,8)</f>
+        <v>00011000</v>
+      </c>
+      <c r="K8" s="26" t="str">
+        <f t="shared" ref="K8" si="0">HEX2BIN(N8,8)</f>
+        <v>11111000</v>
+      </c>
+      <c r="L8" s="26" t="str">
+        <f t="shared" ref="L8" si="1">HEX2BIN(O8,8)</f>
+        <v>10000000</v>
+      </c>
+      <c r="M8" s="30">
         <v>18</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="N8" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="30">
+        <v>80</v>
+      </c>
+      <c r="R8" s="17">
+        <v>1</v>
+      </c>
+      <c r="S8" s="8">
+        <v>18</v>
+      </c>
+      <c r="T8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="P8" s="10">
+      <c r="U8" s="10">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F9" s="24"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="13"/>
-    </row>
-    <row r="10" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F10" s="24"/>
-      <c r="G10" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="16"/>
-    </row>
-    <row r="11" spans="6:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="29" t="b">
+        <f>J7=J8</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="29" t="b">
+        <f t="shared" ref="K9:L9" si="2">K7=K8</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="29" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R9" s="7"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="16"/>
+    </row>
+    <row r="10" spans="6:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="17">
+        <v>2</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F11" s="3">
         <v>2</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="7"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="16"/>
+    </row>
+    <row r="12" spans="6:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H12" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="26" t="str">
+        <f>HEX2BIN(M12,8)</f>
+        <v>11000000</v>
+      </c>
+      <c r="K12" s="26" t="str">
+        <f t="shared" ref="K12" si="3">HEX2BIN(N12,8)</f>
+        <v>10111000</v>
+      </c>
+      <c r="L12" s="26" t="str">
+        <f t="shared" ref="L12" si="4">HEX2BIN(O12,8)</f>
+        <v>10100000</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="R12" s="17">
+        <v>3</v>
+      </c>
+      <c r="S12" s="8">
+        <v>68</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="U12" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="29" t="b">
+        <f>J11=J12</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="29" t="b">
+        <f t="shared" ref="K13" si="5">K11=K12</f>
+        <v>1</v>
+      </c>
+      <c r="L13" s="29" t="b">
+        <f t="shared" ref="L13" si="6">L11=L12</f>
+        <v>1</v>
+      </c>
+      <c r="R13" s="7"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="16"/>
+    </row>
+    <row r="14" spans="6:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R14" s="17">
+        <v>4</v>
+      </c>
+      <c r="S14" s="8">
+        <v>0</v>
+      </c>
+      <c r="T14" s="9">
+        <v>40</v>
+      </c>
+      <c r="U14" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="30">
+        <v>68</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="30">
+        <v>50</v>
+      </c>
+      <c r="R15" s="7"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="16"/>
+    </row>
+    <row r="16" spans="6:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="26" t="str">
+        <f>HEX2BIN(M16,8)</f>
+        <v>01101000</v>
+      </c>
+      <c r="K16" s="26" t="str">
+        <f t="shared" ref="K16" si="7">HEX2BIN(N16,8)</f>
+        <v>10101000</v>
+      </c>
+      <c r="L16" s="26" t="str">
+        <f t="shared" ref="L16" si="8">HEX2BIN(O16,8)</f>
+        <v>01010000</v>
+      </c>
+      <c r="M16" s="30">
+        <v>68</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" s="30">
+        <v>50</v>
+      </c>
+      <c r="R16" s="17">
+        <v>5</v>
+      </c>
+      <c r="S16" s="8">
+        <v>8</v>
+      </c>
+      <c r="T16" s="9">
+        <v>18</v>
+      </c>
+      <c r="U16" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="6:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="29" t="b">
+        <f>J15=J16</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="29" t="b">
+        <f t="shared" ref="K17" si="9">K15=K16</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="29" t="b">
+        <f t="shared" ref="L17" si="10">L15=L16</f>
+        <v>1</v>
+      </c>
+      <c r="R17" s="6"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="13"/>
+    </row>
+    <row r="18" spans="6:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="17">
+        <v>6</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T18" s="9">
         <v>20</v>
       </c>
-      <c r="I11" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="37" t="s">
+      <c r="U18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="3">
+        <v>4</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="30">
+        <v>0</v>
+      </c>
+      <c r="N19" s="30">
+        <v>40</v>
+      </c>
+      <c r="O19" s="30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="6:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="3">
+        <v>4</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="26" t="str">
+        <f>HEX2BIN(M20,8)</f>
+        <v>00000000</v>
+      </c>
+      <c r="K20" s="26" t="str">
+        <f t="shared" ref="K20" si="11">HEX2BIN(N20,8)</f>
+        <v>01000000</v>
+      </c>
+      <c r="L20" s="26" t="str">
+        <f t="shared" ref="L20" si="12">HEX2BIN(O20,8)</f>
+        <v>01001000</v>
+      </c>
+      <c r="M20" s="30">
+        <v>0</v>
+      </c>
+      <c r="N20" s="30">
+        <v>40</v>
+      </c>
+      <c r="O20" s="30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="I21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="29" t="b">
+        <f>J19=J20</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="29" t="b">
+        <f t="shared" ref="K21" si="13">K19=K20</f>
+        <v>1</v>
+      </c>
+      <c r="L21" s="29" t="b">
+        <f t="shared" ref="L21" si="14">L19=L20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="6:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="3">
+        <v>5</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="30">
+        <v>8</v>
+      </c>
+      <c r="N23" s="30">
         <v>18</v>
       </c>
-      <c r="M11" s="20">
-        <v>2</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F12" s="24"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="13"/>
-    </row>
-    <row r="13" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F13" s="24"/>
-      <c r="G13" s="28" t="s">
+      <c r="O23" s="30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="6:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="26" t="str">
+        <f>HEX2BIN(M24,8)</f>
+        <v>00001000</v>
+      </c>
+      <c r="K24" s="26" t="str">
+        <f t="shared" ref="K24:L24" si="15">HEX2BIN(N24,8)</f>
+        <v>00011000</v>
+      </c>
+      <c r="L24" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>01110000</v>
+      </c>
+      <c r="M24" s="30">
         <v>8</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="16"/>
-    </row>
-    <row r="14" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F14" s="3">
-        <v>3</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="36" t="s">
+      <c r="N24" s="30">
+        <v>18</v>
+      </c>
+      <c r="O24" s="30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="I25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="29" t="b">
+        <f>J23=J24</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="29" t="b">
+        <f t="shared" ref="K25" si="16">K23=K24</f>
+        <v>1</v>
+      </c>
+      <c r="L25" s="29" t="b">
+        <f t="shared" ref="L25" si="17">L23=L24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="6:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="3">
+        <v>6</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="20">
-        <v>3</v>
-      </c>
-      <c r="N14" s="8">
-        <v>68</v>
-      </c>
-      <c r="O14" s="9" t="s">
+      <c r="K27" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="P14" s="10">
+      <c r="N27" s="30">
+        <v>20</v>
+      </c>
+      <c r="O27" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="6:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="3">
+        <v>6</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F15" s="24"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="13"/>
-    </row>
-    <row r="16" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F16" s="24"/>
-      <c r="G16" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="16"/>
-    </row>
-    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F17" s="3">
-        <v>4</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="20">
-        <v>4</v>
-      </c>
-      <c r="N17" s="8">
-        <v>0</v>
-      </c>
-      <c r="O17" s="9">
-        <v>40</v>
-      </c>
-      <c r="P17" s="10">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F18" s="24"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="13"/>
-    </row>
-    <row r="19" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F19" s="24"/>
-      <c r="G19" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="16"/>
-    </row>
-    <row r="20" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F20" s="3">
-        <v>5</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="20">
-        <v>5</v>
-      </c>
-      <c r="N20" s="8">
-        <v>8</v>
-      </c>
-      <c r="O20" s="9">
-        <v>18</v>
-      </c>
-      <c r="P20" s="10">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F21" s="24"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="13"/>
-    </row>
-    <row r="22" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F22" s="24"/>
-      <c r="G22" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="13"/>
-    </row>
-    <row r="23" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F23" s="3">
-        <v>6</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23" s="20">
-        <v>6</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O23" s="9">
-        <v>20</v>
-      </c>
-      <c r="P23" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F24" s="23"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="30"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="13"/>
-    </row>
-    <row r="25" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F25" s="19"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="34"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="18"/>
-    </row>
-    <row r="26" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="J28" s="26" t="str">
+        <f>HEX2BIN(M28,8)</f>
+        <v>00000000</v>
+      </c>
+      <c r="K28" s="26" t="str">
+        <f t="shared" ref="K28" si="18">HEX2BIN(N28,8)</f>
+        <v>00000000</v>
+      </c>
+      <c r="L28" s="26" t="str">
+        <f t="shared" ref="L28" si="19">HEX2BIN(O28,8)</f>
+        <v>00000000</v>
+      </c>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+    </row>
+    <row r="29" spans="6:21" x14ac:dyDescent="0.25">
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="I29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="29" t="b">
+        <f>J27=J28</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="29" t="b">
+        <f t="shared" ref="K29" si="20">K27=K28</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="29" t="b">
+        <f t="shared" ref="L29" si="21">L27=L28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="6:21" x14ac:dyDescent="0.25">
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="6:21" x14ac:dyDescent="0.25">
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="K38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test-phase1/testcases.xlsx
+++ b/test-phase1/testcases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Edge-Detection\test-phase1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE561156-9010-4B32-B3AA-33E74D31D5D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4222BA4E-A3A7-4B34-BBCC-63C749F55104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9080F51-A76A-4FF1-BCE7-52963C9AB4DE}"/>
+    <workbookView xWindow="37005" yWindow="1410" windowWidth="17145" windowHeight="12015" xr2:uid="{D9080F51-A76A-4FF1-BCE7-52963C9AB4DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
   <si>
     <t>Byte</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>c0</t>
+  </si>
+  <si>
+    <t>8c</t>
+  </si>
+  <si>
+    <t>2d</t>
+  </si>
+  <si>
+    <t>1c</t>
   </si>
 </sst>
 </file>
@@ -404,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -488,6 +497,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -806,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29167566-3071-4CC4-A008-AAC6C6145884}">
   <dimension ref="F4:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,6 +978,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="P9" t="s">
+        <v>54</v>
+      </c>
       <c r="R9" s="7"/>
       <c r="S9" s="14"/>
       <c r="T9" s="15"/>
@@ -1055,6 +1070,9 @@
       <c r="O12" s="30" t="s">
         <v>53</v>
       </c>
+      <c r="P12" s="31" t="s">
+        <v>52</v>
+      </c>
       <c r="R12" s="17">
         <v>3</v>
       </c>
@@ -1173,6 +1191,9 @@
       <c r="O16" s="30">
         <v>50</v>
       </c>
+      <c r="P16" t="s">
+        <v>57</v>
+      </c>
       <c r="R16" s="17">
         <v>5</v>
       </c>
@@ -1287,6 +1308,9 @@
       <c r="O20" s="30">
         <v>48</v>
       </c>
+      <c r="P20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="6:21" x14ac:dyDescent="0.25">
       <c r="I21" s="3" t="s">
@@ -1371,6 +1395,9 @@
       <c r="O24" s="30">
         <v>70</v>
       </c>
+      <c r="P24" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="25" spans="6:21" x14ac:dyDescent="0.25">
       <c r="I25" s="3" t="s">
@@ -1449,6 +1476,9 @@
       <c r="M28" s="30"/>
       <c r="N28" s="30"/>
       <c r="O28" s="30"/>
+      <c r="P28">
+        <v>45</v>
+      </c>
     </row>
     <row r="29" spans="6:21" x14ac:dyDescent="0.25">
       <c r="G29" s="2"/>

--- a/test-phase1/testcases.xlsx
+++ b/test-phase1/testcases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Edge-Detection\test-phase1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4222BA4E-A3A7-4B34-BBCC-63C749F55104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2465286-27CD-41A4-BA65-34B546AA33AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37005" yWindow="1410" windowWidth="17145" windowHeight="12015" xr2:uid="{D9080F51-A76A-4FF1-BCE7-52963C9AB4DE}"/>
+    <workbookView xWindow="32310" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{D9080F51-A76A-4FF1-BCE7-52963C9AB4DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -818,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29167566-3071-4CC4-A008-AAC6C6145884}">
   <dimension ref="F4:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
